--- a/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -24,14 +24,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -77,7 +77,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -360,7 +360,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -372,9 +372,7 @@
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="2" spans="1:2"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -398,11 +396,7 @@
   <x:cols>
     <x:col min="1" max="5" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
-  <x:sheetData>
-    <x:row r="2" spans="1:5"/>
-    <x:row r="4" spans="1:5"/>
-    <x:row r="5" spans="1:5"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -423,9 +417,7 @@
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="2" spans="1:2"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -368,7 +368,7 @@
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B2" sqref="B2 B2:B2"/>
+      <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -389,7 +389,7 @@
   <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:A2 A2:XFD2 A4:XFD4 A5:XFD5 B1:B1048576 D1:D1048576 E1:E1048576"/>
+      <x:selection activeCell="A2" sqref="A2 A2:XFD2 A4:XFD4 A5:XFD5 B1:B1048576 D1:D1048576 E1:E1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -413,7 +413,7 @@
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B2" sqref="B2 B2:B2 D2:E2 C3:C3 D4:E5"/>
+      <x:selection activeCell="B2" sqref="B2 D2:E2 C3 D4:E5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -389,7 +389,7 @@
   <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:XFD2 A4:XFD4 A5:XFD5 B1:B1048576 D1:D1048576 E1:E1048576"/>
+      <x:selection activeCell="A2" sqref="A2 2:2 4:4 5:5 B:B D:D E:E"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -389,7 +389,7 @@
   <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 2:2 4:4 5:5 B:B D:D E:E"/>
+      <x:selection activeCell="B1" sqref="B1 B:B D:D E:E 2:2 4:4 5:5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
